--- a/cea/db/CH/Archetypes/Archetypes_properties.xlsx
+++ b/cea/db/CH/Archetypes/Archetypes_properties.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcl2\AppData\Roaming\ESRI\Desktop10.3\ArcToolbox\My Toolboxes\cea\db\Archetypes\Switzerland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darthoma\Documents\GitHub\CEAforArcGIS\cea\db\CH\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12348" tabRatio="785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="EMBODIED_ENERGY" sheetId="5" r:id="rId6"/>
     <sheet name="EMBODIED_EMISSIONS" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -858,7 +858,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1756,22 +1756,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H26" sqref="H26:H181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.15625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.15625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13" t="s">
         <v>60</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
         <v>61</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13" t="s">
         <v>64</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="13" t="s">
         <v>43</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13" t="s">
         <v>46</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="13" t="s">
         <v>51</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13" t="s">
         <v>65</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13" t="s">
         <v>72</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="13" t="s">
         <v>73</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="13" t="s">
         <v>75</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="13" t="s">
         <v>79</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="13" t="s">
         <v>82</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="13" t="s">
         <v>83</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="13" t="s">
         <v>85</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="13" t="s">
         <v>87</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="13" t="s">
         <v>88</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="13" t="s">
         <v>245</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="13" t="s">
         <v>246</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="13" t="s">
         <v>247</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="13" t="s">
         <v>248</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="13" t="s">
         <v>249</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="13" t="s">
         <v>250</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="13" t="s">
         <v>251</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="13" t="s">
         <v>252</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="13" t="s">
         <v>253</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="13" t="s">
         <v>254</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="13" t="s">
         <v>255</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="13" t="s">
         <v>256</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="13" t="s">
         <v>101</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="13" t="s">
         <v>102</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="13" t="s">
         <v>103</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="13" t="s">
         <v>104</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="13" t="s">
         <v>105</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="13" t="s">
         <v>106</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="13" t="s">
         <v>107</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="13" t="s">
         <v>109</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="13" t="s">
         <v>110</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="13" t="s">
         <v>111</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="13" t="s">
         <v>112</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="13" t="s">
         <v>114</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="13" t="s">
         <v>115</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="13" t="s">
         <v>116</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="13" t="s">
         <v>117</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="13" t="s">
         <v>118</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="13" t="s">
         <v>119</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="13" t="s">
         <v>120</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="13" t="s">
         <v>121</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="13" t="s">
         <v>122</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="13" t="s">
         <v>123</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="13" t="s">
         <v>124</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="13" t="s">
         <v>125</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="13" t="s">
         <v>126</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="13" t="s">
         <v>127</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="13" t="s">
         <v>128</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="13" t="s">
         <v>129</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="13" t="s">
         <v>131</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="13" t="s">
         <v>132</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="13" t="s">
         <v>133</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="13" t="s">
         <v>134</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="13" t="s">
         <v>135</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="13" t="s">
         <v>136</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="13" t="s">
         <v>137</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="13" t="s">
         <v>138</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="13" t="s">
         <v>139</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="13" t="s">
         <v>140</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="13" t="s">
         <v>141</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="13" t="s">
         <v>142</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="13" t="s">
         <v>143</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="13" t="s">
         <v>144</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="13" t="s">
         <v>145</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="13" t="s">
         <v>146</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="13" t="s">
         <v>147</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="13" t="s">
         <v>148</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="13" t="s">
         <v>149</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="13" t="s">
         <v>150</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="13" t="s">
         <v>151</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="13" t="s">
         <v>152</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="13" t="s">
         <v>153</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="13" t="s">
         <v>154</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="13" t="s">
         <v>155</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="13" t="s">
         <v>156</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="13" t="s">
         <v>157</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="13" t="s">
         <v>158</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="13" t="s">
         <v>159</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="13" t="s">
         <v>160</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="13" t="s">
         <v>161</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="13" t="s">
         <v>162</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="13" t="s">
         <v>163</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="13" t="s">
         <v>164</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="13" t="s">
         <v>165</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="13" t="s">
         <v>166</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="13" t="s">
         <v>167</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="13" t="s">
         <v>168</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="13" t="s">
         <v>169</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="13" t="s">
         <v>170</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="13" t="s">
         <v>171</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="13" t="s">
         <v>172</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="13" t="s">
         <v>173</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="13" t="s">
         <v>174</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="13" t="s">
         <v>175</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="13" t="s">
         <v>176</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="13" t="s">
         <v>177</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="13" t="s">
         <v>178</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="13" t="s">
         <v>179</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="13" t="s">
         <v>180</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="13" t="s">
         <v>181</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="13" t="s">
         <v>182</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="13" t="s">
         <v>183</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="13" t="s">
         <v>184</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="13" t="s">
         <v>185</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="13" t="s">
         <v>186</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="13" t="s">
         <v>187</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="13" t="s">
         <v>188</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="13" t="s">
         <v>189</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="13" t="s">
         <v>190</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="13" t="s">
         <v>191</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="13" t="s">
         <v>192</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="13" t="s">
         <v>193</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="13" t="s">
         <v>194</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="13" t="s">
         <v>195</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="13" t="s">
         <v>196</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="13" t="s">
         <v>197</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="13" t="s">
         <v>198</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="13" t="s">
         <v>199</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="13" t="s">
         <v>200</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="13" t="s">
         <v>201</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="13" t="s">
         <v>202</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="13" t="s">
         <v>203</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="13" t="s">
         <v>204</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="13" t="s">
         <v>205</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="13" t="s">
         <v>206</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="13" t="s">
         <v>207</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="13" t="s">
         <v>208</v>
       </c>
@@ -7046,18 +7046,18 @@
       <selection activeCell="A43" sqref="A43:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.15625" style="4"/>
+    <col min="6" max="6" width="9.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13" t="s">
         <v>60</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
         <v>61</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13" t="s">
         <v>64</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="13" t="s">
         <v>43</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13" t="s">
         <v>46</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="13" t="s">
         <v>51</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13" t="s">
         <v>65</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13" t="s">
         <v>72</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="13" t="s">
         <v>73</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="13" t="s">
         <v>75</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="13" t="s">
         <v>79</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="13" t="s">
         <v>82</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="13" t="s">
         <v>83</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="13" t="s">
         <v>85</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="13" t="s">
         <v>87</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="13" t="s">
         <v>88</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="13" t="s">
         <v>257</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="13" t="s">
         <v>258</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="13" t="s">
         <v>259</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="13" t="s">
         <v>260</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="13" t="s">
         <v>261</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="13" t="s">
         <v>262</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="13" t="s">
         <v>263</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="13" t="s">
         <v>264</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="13" t="s">
         <v>265</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="13" t="s">
         <v>266</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="13" t="s">
         <v>267</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="13" t="s">
         <v>268</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="13" t="s">
         <v>101</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="13" t="s">
         <v>102</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="13" t="s">
         <v>103</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="13" t="s">
         <v>104</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="13" t="s">
         <v>105</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="13" t="s">
         <v>106</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="13" t="s">
         <v>107</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="13" t="s">
         <v>109</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="13" t="s">
         <v>110</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="13" t="s">
         <v>111</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="13" t="s">
         <v>112</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="13" t="s">
         <v>114</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="13" t="s">
         <v>115</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="13" t="s">
         <v>116</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="13" t="s">
         <v>117</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="13" t="s">
         <v>118</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="13" t="s">
         <v>119</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="13" t="s">
         <v>120</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="13" t="s">
         <v>121</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="13" t="s">
         <v>122</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="13" t="s">
         <v>123</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="13" t="s">
         <v>124</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="13" t="s">
         <v>125</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="13" t="s">
         <v>126</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="13" t="s">
         <v>127</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="13" t="s">
         <v>128</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="13" t="s">
         <v>129</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="13" t="s">
         <v>131</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="13" t="s">
         <v>132</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="13" t="s">
         <v>133</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="13" t="s">
         <v>134</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="13" t="s">
         <v>135</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="13" t="s">
         <v>136</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="13" t="s">
         <v>137</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="13" t="s">
         <v>138</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="13" t="s">
         <v>139</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="13" t="s">
         <v>140</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="13" t="s">
         <v>141</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="13" t="s">
         <v>142</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="13" t="s">
         <v>143</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="13" t="s">
         <v>144</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="13" t="s">
         <v>145</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="13" t="s">
         <v>146</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="13" t="s">
         <v>147</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="13" t="s">
         <v>148</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="13" t="s">
         <v>149</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="13" t="s">
         <v>150</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="13" t="s">
         <v>151</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="13" t="s">
         <v>152</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="13" t="s">
         <v>153</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="13" t="s">
         <v>154</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="13" t="s">
         <v>155</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="13" t="s">
         <v>156</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="13" t="s">
         <v>157</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="13" t="s">
         <v>158</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="13" t="s">
         <v>159</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="13" t="s">
         <v>160</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="13" t="s">
         <v>161</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="13" t="s">
         <v>162</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="13" t="s">
         <v>163</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="13" t="s">
         <v>164</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="13" t="s">
         <v>165</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="13" t="s">
         <v>166</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="13" t="s">
         <v>167</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="13" t="s">
         <v>168</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="13" t="s">
         <v>169</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="13" t="s">
         <v>170</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="13" t="s">
         <v>171</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="13" t="s">
         <v>172</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="13" t="s">
         <v>173</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="13" t="s">
         <v>174</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="13" t="s">
         <v>175</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="13" t="s">
         <v>176</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="13" t="s">
         <v>177</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="13" t="s">
         <v>178</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="13" t="s">
         <v>179</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="13" t="s">
         <v>180</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="13" t="s">
         <v>181</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="13" t="s">
         <v>182</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="13" t="s">
         <v>183</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="13" t="s">
         <v>184</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="13" t="s">
         <v>185</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="13" t="s">
         <v>186</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="13" t="s">
         <v>187</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="13" t="s">
         <v>188</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="13" t="s">
         <v>189</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="13" t="s">
         <v>190</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="13" t="s">
         <v>191</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="13" t="s">
         <v>192</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="13" t="s">
         <v>193</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="13" t="s">
         <v>194</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="13" t="s">
         <v>195</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="13" t="s">
         <v>196</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="13" t="s">
         <v>197</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="13" t="s">
         <v>198</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="13" t="s">
         <v>199</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="13" t="s">
         <v>200</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="13" t="s">
         <v>201</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="13" t="s">
         <v>202</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="13" t="s">
         <v>203</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="13" t="s">
         <v>204</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="13" t="s">
         <v>205</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="13" t="s">
         <v>206</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="13" t="s">
         <v>207</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="13" t="s">
         <v>208</v>
       </c>
@@ -11234,21 +11234,22 @@
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.68359375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="9.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.15625" style="4"/>
+    <col min="7" max="7" width="9.15625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.26171875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.68359375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.26171875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.83984375" customWidth="1"/>
+    <col min="12" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
@@ -11312,7 +11313,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -11344,7 +11345,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -11376,7 +11377,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -11408,7 +11409,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -11440,7 +11441,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -11472,7 +11473,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -11504,7 +11505,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -11536,7 +11537,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -11568,7 +11569,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -11632,7 +11633,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -11664,7 +11665,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -11696,7 +11697,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
@@ -11728,7 +11729,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -11760,7 +11761,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
@@ -11792,7 +11793,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -11856,7 +11857,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
@@ -11888,7 +11889,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13" t="s">
         <v>60</v>
       </c>
@@ -11920,7 +11921,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
         <v>61</v>
       </c>
@@ -11952,7 +11953,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -11984,7 +11985,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -12016,7 +12017,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13" t="s">
         <v>64</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -12080,7 +12081,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
@@ -12112,7 +12113,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="13" t="s">
         <v>43</v>
       </c>
@@ -12144,7 +12145,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -12176,7 +12177,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13" t="s">
         <v>46</v>
       </c>
@@ -12240,7 +12241,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
@@ -12272,7 +12273,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
@@ -12304,7 +12305,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -12336,7 +12337,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="13" t="s">
         <v>51</v>
       </c>
@@ -12400,7 +12401,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -12432,7 +12433,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13" t="s">
         <v>65</v>
       </c>
@@ -12464,7 +12465,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
@@ -12496,7 +12497,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
@@ -12528,7 +12529,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
@@ -12560,7 +12561,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
@@ -12592,7 +12593,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
@@ -12624,7 +12625,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
@@ -12656,7 +12657,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13" t="s">
         <v>72</v>
       </c>
@@ -12688,7 +12689,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="13" t="s">
         <v>73</v>
       </c>
@@ -12720,7 +12721,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
@@ -12752,7 +12753,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="13" t="s">
         <v>75</v>
       </c>
@@ -12784,7 +12785,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
@@ -12848,7 +12849,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
@@ -12880,7 +12881,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="13" t="s">
         <v>79</v>
       </c>
@@ -12912,7 +12913,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
@@ -12944,7 +12945,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
@@ -12976,7 +12977,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="13" t="s">
         <v>82</v>
       </c>
@@ -13008,7 +13009,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="13" t="s">
         <v>83</v>
       </c>
@@ -13040,7 +13041,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
@@ -13072,7 +13073,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="13" t="s">
         <v>85</v>
       </c>
@@ -13104,7 +13105,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
@@ -13136,7 +13137,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="13" t="s">
         <v>87</v>
       </c>
@@ -13168,7 +13169,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="13" t="s">
         <v>88</v>
       </c>
@@ -13200,7 +13201,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="13" t="s">
         <v>245</v>
       </c>
@@ -13232,7 +13233,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="13" t="s">
         <v>246</v>
       </c>
@@ -13264,7 +13265,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="13" t="s">
         <v>247</v>
       </c>
@@ -13296,7 +13297,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="13" t="s">
         <v>248</v>
       </c>
@@ -13328,7 +13329,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="13" t="s">
         <v>249</v>
       </c>
@@ -13360,7 +13361,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="13" t="s">
         <v>250</v>
       </c>
@@ -13392,7 +13393,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="13" t="s">
         <v>251</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="13" t="s">
         <v>252</v>
       </c>
@@ -13456,7 +13457,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="13" t="s">
         <v>253</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="13" t="s">
         <v>254</v>
       </c>
@@ -13520,7 +13521,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="13" t="s">
         <v>255</v>
       </c>
@@ -13552,7 +13553,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="13" t="s">
         <v>256</v>
       </c>
@@ -13584,7 +13585,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="13" t="s">
         <v>101</v>
       </c>
@@ -13616,7 +13617,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="13" t="s">
         <v>102</v>
       </c>
@@ -13648,7 +13649,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="13" t="s">
         <v>103</v>
       </c>
@@ -13680,7 +13681,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="13" t="s">
         <v>104</v>
       </c>
@@ -13712,7 +13713,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="13" t="s">
         <v>105</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="13" t="s">
         <v>106</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="13" t="s">
         <v>107</v>
       </c>
@@ -13808,7 +13809,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
@@ -13840,7 +13841,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="13" t="s">
         <v>109</v>
       </c>
@@ -13872,7 +13873,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="13" t="s">
         <v>110</v>
       </c>
@@ -13904,7 +13905,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="13" t="s">
         <v>111</v>
       </c>
@@ -13936,7 +13937,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="13" t="s">
         <v>112</v>
       </c>
@@ -13968,7 +13969,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
@@ -14000,7 +14001,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="13" t="s">
         <v>114</v>
       </c>
@@ -14032,7 +14033,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="13" t="s">
         <v>115</v>
       </c>
@@ -14064,7 +14065,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="13" t="s">
         <v>116</v>
       </c>
@@ -14096,7 +14097,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="13" t="s">
         <v>117</v>
       </c>
@@ -14128,7 +14129,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="13" t="s">
         <v>118</v>
       </c>
@@ -14160,7 +14161,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="13" t="s">
         <v>119</v>
       </c>
@@ -14192,7 +14193,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="13" t="s">
         <v>120</v>
       </c>
@@ -14224,7 +14225,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="13" t="s">
         <v>121</v>
       </c>
@@ -14256,7 +14257,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="13" t="s">
         <v>122</v>
       </c>
@@ -14288,7 +14289,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="13" t="s">
         <v>123</v>
       </c>
@@ -14320,7 +14321,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="13" t="s">
         <v>124</v>
       </c>
@@ -14352,7 +14353,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="13" t="s">
         <v>125</v>
       </c>
@@ -14384,7 +14385,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="13" t="s">
         <v>126</v>
       </c>
@@ -14416,7 +14417,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="13" t="s">
         <v>127</v>
       </c>
@@ -14448,7 +14449,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="13" t="s">
         <v>128</v>
       </c>
@@ -14480,7 +14481,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="13" t="s">
         <v>129</v>
       </c>
@@ -14512,7 +14513,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -14544,7 +14545,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="13" t="s">
         <v>131</v>
       </c>
@@ -14576,7 +14577,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="13" t="s">
         <v>132</v>
       </c>
@@ -14608,7 +14609,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="13" t="s">
         <v>133</v>
       </c>
@@ -14640,7 +14641,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="13" t="s">
         <v>134</v>
       </c>
@@ -14672,7 +14673,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="13" t="s">
         <v>135</v>
       </c>
@@ -14704,7 +14705,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="13" t="s">
         <v>136</v>
       </c>
@@ -14736,7 +14737,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="13" t="s">
         <v>137</v>
       </c>
@@ -14768,7 +14769,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="13" t="s">
         <v>138</v>
       </c>
@@ -14800,7 +14801,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="13" t="s">
         <v>139</v>
       </c>
@@ -14832,7 +14833,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="13" t="s">
         <v>140</v>
       </c>
@@ -14864,7 +14865,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="13" t="s">
         <v>141</v>
       </c>
@@ -14896,7 +14897,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="13" t="s">
         <v>142</v>
       </c>
@@ -14928,7 +14929,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="13" t="s">
         <v>143</v>
       </c>
@@ -14960,7 +14961,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="13" t="s">
         <v>144</v>
       </c>
@@ -14992,7 +14993,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="13" t="s">
         <v>145</v>
       </c>
@@ -15024,7 +15025,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="13" t="s">
         <v>146</v>
       </c>
@@ -15056,7 +15057,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="13" t="s">
         <v>147</v>
       </c>
@@ -15088,7 +15089,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="13" t="s">
         <v>148</v>
       </c>
@@ -15120,7 +15121,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="13" t="s">
         <v>149</v>
       </c>
@@ -15152,7 +15153,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="13" t="s">
         <v>150</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="13" t="s">
         <v>151</v>
       </c>
@@ -15216,7 +15217,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="13" t="s">
         <v>152</v>
       </c>
@@ -15248,7 +15249,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="13" t="s">
         <v>153</v>
       </c>
@@ -15280,7 +15281,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="13" t="s">
         <v>154</v>
       </c>
@@ -15312,7 +15313,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="13" t="s">
         <v>155</v>
       </c>
@@ -15344,7 +15345,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="13" t="s">
         <v>156</v>
       </c>
@@ -15376,7 +15377,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="13" t="s">
         <v>157</v>
       </c>
@@ -15408,7 +15409,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="13" t="s">
         <v>158</v>
       </c>
@@ -15440,7 +15441,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="13" t="s">
         <v>159</v>
       </c>
@@ -15472,7 +15473,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="13" t="s">
         <v>160</v>
       </c>
@@ -15504,7 +15505,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="13" t="s">
         <v>161</v>
       </c>
@@ -15536,7 +15537,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="13" t="s">
         <v>162</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="13" t="s">
         <v>163</v>
       </c>
@@ -15600,7 +15601,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="13" t="s">
         <v>164</v>
       </c>
@@ -15632,7 +15633,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="13" t="s">
         <v>165</v>
       </c>
@@ -15664,7 +15665,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="13" t="s">
         <v>166</v>
       </c>
@@ -15696,7 +15697,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="13" t="s">
         <v>167</v>
       </c>
@@ -15728,7 +15729,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="13" t="s">
         <v>168</v>
       </c>
@@ -15760,7 +15761,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="13" t="s">
         <v>169</v>
       </c>
@@ -15792,7 +15793,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="13" t="s">
         <v>170</v>
       </c>
@@ -15824,7 +15825,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="13" t="s">
         <v>171</v>
       </c>
@@ -15856,7 +15857,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="13" t="s">
         <v>172</v>
       </c>
@@ -15888,7 +15889,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="13" t="s">
         <v>173</v>
       </c>
@@ -15920,7 +15921,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="13" t="s">
         <v>174</v>
       </c>
@@ -15952,7 +15953,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="13" t="s">
         <v>175</v>
       </c>
@@ -15984,7 +15985,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="13" t="s">
         <v>176</v>
       </c>
@@ -16016,7 +16017,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="13" t="s">
         <v>177</v>
       </c>
@@ -16048,7 +16049,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="13" t="s">
         <v>178</v>
       </c>
@@ -16080,7 +16081,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="13" t="s">
         <v>179</v>
       </c>
@@ -16112,7 +16113,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="13" t="s">
         <v>180</v>
       </c>
@@ -16144,7 +16145,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="13" t="s">
         <v>181</v>
       </c>
@@ -16176,7 +16177,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="13" t="s">
         <v>182</v>
       </c>
@@ -16208,7 +16209,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="13" t="s">
         <v>183</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="13" t="s">
         <v>184</v>
       </c>
@@ -16272,7 +16273,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="13" t="s">
         <v>185</v>
       </c>
@@ -16304,7 +16305,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="13" t="s">
         <v>186</v>
       </c>
@@ -16336,7 +16337,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="13" t="s">
         <v>187</v>
       </c>
@@ -16368,7 +16369,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="13" t="s">
         <v>188</v>
       </c>
@@ -16400,7 +16401,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="13" t="s">
         <v>189</v>
       </c>
@@ -16432,7 +16433,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="13" t="s">
         <v>190</v>
       </c>
@@ -16464,7 +16465,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="13" t="s">
         <v>191</v>
       </c>
@@ -16496,7 +16497,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="13" t="s">
         <v>192</v>
       </c>
@@ -16528,7 +16529,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="13" t="s">
         <v>193</v>
       </c>
@@ -16560,7 +16561,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="13" t="s">
         <v>194</v>
       </c>
@@ -16592,7 +16593,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="13" t="s">
         <v>195</v>
       </c>
@@ -16624,7 +16625,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="13" t="s">
         <v>196</v>
       </c>
@@ -16656,7 +16657,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="13" t="s">
         <v>197</v>
       </c>
@@ -16688,7 +16689,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="13" t="s">
         <v>198</v>
       </c>
@@ -16720,7 +16721,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="13" t="s">
         <v>199</v>
       </c>
@@ -16752,7 +16753,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="13" t="s">
         <v>200</v>
       </c>
@@ -16784,7 +16785,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="13" t="s">
         <v>201</v>
       </c>
@@ -16816,7 +16817,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="13" t="s">
         <v>202</v>
       </c>
@@ -16848,7 +16849,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="13" t="s">
         <v>203</v>
       </c>
@@ -16880,7 +16881,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="13" t="s">
         <v>204</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="13" t="s">
         <v>205</v>
       </c>
@@ -16944,7 +16945,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="13" t="s">
         <v>206</v>
       </c>
@@ -16976,7 +16977,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="13" t="s">
         <v>207</v>
       </c>
@@ -17008,7 +17009,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="13" t="s">
         <v>208</v>
       </c>
@@ -17053,18 +17054,18 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.68359375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -17084,7 +17085,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
         <v>230</v>
       </c>
@@ -17104,7 +17105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
         <v>231</v>
       </c>
@@ -17124,7 +17125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14" t="s">
         <v>232</v>
       </c>
@@ -17144,7 +17145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14" t="s">
         <v>233</v>
       </c>
@@ -17164,7 +17165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13" t="s">
         <v>234</v>
       </c>
@@ -17184,7 +17185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13" t="s">
         <v>244</v>
       </c>
@@ -17204,7 +17205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>235</v>
       </c>
@@ -17225,7 +17226,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13" t="s">
         <v>236</v>
       </c>
@@ -17245,7 +17246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
         <v>237</v>
       </c>
@@ -17265,7 +17266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>238</v>
       </c>
@@ -17285,7 +17286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -17305,7 +17306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
         <v>240</v>
       </c>
@@ -17325,7 +17326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="13" t="s">
         <v>241</v>
       </c>
@@ -17345,7 +17346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13" t="s">
         <v>242</v>
       </c>
@@ -17365,7 +17366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13" t="s">
         <v>243</v>
       </c>
@@ -17395,26 +17396,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.41796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.15625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.68359375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -17446,7 +17447,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
         <v>230</v>
       </c>
@@ -17478,7 +17479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
         <v>231</v>
       </c>
@@ -17512,7 +17513,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14" t="s">
         <v>232</v>
       </c>
@@ -17544,7 +17545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13" t="s">
         <v>233</v>
       </c>
@@ -17576,7 +17577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13" t="s">
         <v>234</v>
       </c>
@@ -17608,7 +17609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13" t="s">
         <v>244</v>
       </c>
@@ -17640,7 +17641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>235</v>
       </c>
@@ -17672,7 +17673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13" t="s">
         <v>236</v>
       </c>
@@ -17704,7 +17705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
         <v>237</v>
       </c>
@@ -17736,7 +17737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>238</v>
       </c>
@@ -17762,13 +17763,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="15">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J11" s="15">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -17800,7 +17801,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
         <v>240</v>
       </c>
@@ -17832,7 +17833,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="13" t="s">
         <v>241</v>
       </c>
@@ -17864,7 +17865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13" t="s">
         <v>242</v>
       </c>
@@ -17896,7 +17897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13" t="s">
         <v>243</v>
       </c>
@@ -17945,24 +17946,24 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.68359375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83984375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.578125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.15625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26171875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.41796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.41796875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18003,7 +18004,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -18044,7 +18045,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -18085,7 +18086,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -18126,7 +18127,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -18167,7 +18168,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -18208,7 +18209,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -18249,7 +18250,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -18290,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -18331,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -18372,7 +18373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -18413,7 +18414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -18454,7 +18455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -18495,7 +18496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -18536,7 +18537,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -18577,7 +18578,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -18618,7 +18619,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -18659,7 +18660,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -18700,7 +18701,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -18741,7 +18742,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -18782,7 +18783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -18823,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -18864,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -18905,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -18946,7 +18947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -18987,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -19028,7 +19029,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -19069,7 +19070,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -19110,7 +19111,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -19151,7 +19152,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -19192,7 +19193,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -19233,7 +19234,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -19274,7 +19275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -19315,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -19356,7 +19357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -19397,7 +19398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -19438,7 +19439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -19479,7 +19480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -19520,7 +19521,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -19561,7 +19562,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -19602,7 +19603,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -19643,7 +19644,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
@@ -19684,7 +19685,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
@@ -19725,7 +19726,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -19766,7 +19767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -19807,7 +19808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
@@ -19848,7 +19849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
@@ -19889,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -19930,7 +19931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
         <v>76</v>
       </c>
@@ -19971,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
         <v>77</v>
       </c>
@@ -20012,7 +20013,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
@@ -20053,7 +20054,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
@@ -20094,7 +20095,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
@@ -20135,7 +20136,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
@@ -20176,7 +20177,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
         <v>82</v>
       </c>
@@ -20217,7 +20218,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
         <v>83</v>
       </c>
@@ -20258,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
         <v>84</v>
       </c>
@@ -20299,7 +20300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -20340,7 +20341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
         <v>86</v>
       </c>
@@ -20381,7 +20382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
         <v>87</v>
       </c>
@@ -20422,7 +20423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -20463,7 +20464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
         <v>89</v>
       </c>
@@ -20504,7 +20505,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
         <v>90</v>
       </c>
@@ -20545,7 +20546,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
         <v>91</v>
       </c>
@@ -20586,7 +20587,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -20627,7 +20628,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
         <v>93</v>
       </c>
@@ -20668,7 +20669,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -20709,7 +20710,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -20750,7 +20751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -20791,7 +20792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>97</v>
       </c>
@@ -20832,7 +20833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
         <v>98</v>
       </c>
@@ -20873,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
         <v>99</v>
       </c>
@@ -20914,7 +20915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -20955,7 +20956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -20996,7 +20997,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -21037,7 +21038,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
         <v>103</v>
       </c>
@@ -21078,7 +21079,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -21119,7 +21120,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
         <v>105</v>
       </c>
@@ -21160,7 +21161,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
         <v>106</v>
       </c>
@@ -21201,7 +21202,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
         <v>107</v>
       </c>
@@ -21242,7 +21243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
         <v>108</v>
       </c>
@@ -21283,7 +21284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
         <v>109</v>
       </c>
@@ -21324,7 +21325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
         <v>110</v>
       </c>
@@ -21365,7 +21366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
         <v>111</v>
       </c>
@@ -21406,7 +21407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
         <v>112</v>
       </c>
@@ -21447,7 +21448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
@@ -21488,7 +21489,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
         <v>114</v>
       </c>
@@ -21529,7 +21530,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
         <v>115</v>
       </c>
@@ -21570,7 +21571,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
         <v>116</v>
       </c>
@@ -21611,7 +21612,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
         <v>117</v>
       </c>
@@ -21652,7 +21653,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
         <v>118</v>
       </c>
@@ -21693,7 +21694,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
         <v>119</v>
       </c>
@@ -21734,7 +21735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
         <v>120</v>
       </c>
@@ -21775,7 +21776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
         <v>121</v>
       </c>
@@ -21816,7 +21817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
         <v>122</v>
       </c>
@@ -21857,7 +21858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2" t="s">
         <v>123</v>
       </c>
@@ -21898,7 +21899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
         <v>124</v>
       </c>
@@ -21939,7 +21940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
         <v>125</v>
       </c>
@@ -21980,7 +21981,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2" t="s">
         <v>126</v>
       </c>
@@ -22021,7 +22022,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
         <v>127</v>
       </c>
@@ -22062,7 +22063,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2" t="s">
         <v>128</v>
       </c>
@@ -22103,7 +22104,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
         <v>129</v>
       </c>
@@ -22144,7 +22145,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
         <v>130</v>
       </c>
@@ -22185,7 +22186,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
         <v>131</v>
       </c>
@@ -22226,7 +22227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
         <v>132</v>
       </c>
@@ -22267,7 +22268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
         <v>133</v>
       </c>
@@ -22308,7 +22309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
@@ -22349,7 +22350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
         <v>135</v>
       </c>
@@ -22390,7 +22391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
         <v>136</v>
       </c>
@@ -22431,7 +22432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
         <v>137</v>
       </c>
@@ -22472,7 +22473,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2" t="s">
         <v>138</v>
       </c>
@@ -22513,7 +22514,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2" t="s">
         <v>139</v>
       </c>
@@ -22554,7 +22555,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2" t="s">
         <v>140</v>
       </c>
@@ -22595,7 +22596,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
         <v>141</v>
       </c>
@@ -22636,7 +22637,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
         <v>142</v>
       </c>
@@ -22677,7 +22678,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2" t="s">
         <v>143</v>
       </c>
@@ -22718,7 +22719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2" t="s">
         <v>144</v>
       </c>
@@ -22759,7 +22760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
         <v>145</v>
       </c>
@@ -22800,7 +22801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2" t="s">
         <v>146</v>
       </c>
@@ -22841,7 +22842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2" t="s">
         <v>147</v>
       </c>
@@ -22882,7 +22883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -22923,7 +22924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -22964,7 +22965,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2" t="s">
         <v>150</v>
       </c>
@@ -23005,7 +23006,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2" t="s">
         <v>151</v>
       </c>
@@ -23046,7 +23047,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2" t="s">
         <v>152</v>
       </c>
@@ -23087,7 +23088,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2" t="s">
         <v>153</v>
       </c>
@@ -23128,7 +23129,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2" t="s">
         <v>154</v>
       </c>
@@ -23169,7 +23170,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2" t="s">
         <v>155</v>
       </c>
@@ -23210,7 +23211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2" t="s">
         <v>156</v>
       </c>
@@ -23251,7 +23252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2" t="s">
         <v>157</v>
       </c>
@@ -23292,7 +23293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2" t="s">
         <v>158</v>
       </c>
@@ -23333,7 +23334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2" t="s">
         <v>159</v>
       </c>
@@ -23374,7 +23375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2" t="s">
         <v>160</v>
       </c>
@@ -23415,7 +23416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2" t="s">
         <v>161</v>
       </c>
@@ -23456,7 +23457,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2" t="s">
         <v>162</v>
       </c>
@@ -23497,7 +23498,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2" t="s">
         <v>163</v>
       </c>
@@ -23538,7 +23539,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2" t="s">
         <v>164</v>
       </c>
@@ -23579,7 +23580,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2" t="s">
         <v>165</v>
       </c>
@@ -23620,7 +23621,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2" t="s">
         <v>166</v>
       </c>
@@ -23661,7 +23662,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2" t="s">
         <v>167</v>
       </c>
@@ -23702,7 +23703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2" t="s">
         <v>168</v>
       </c>
@@ -23743,7 +23744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2" t="s">
         <v>169</v>
       </c>
@@ -23784,7 +23785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2" t="s">
         <v>170</v>
       </c>
@@ -23825,7 +23826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2" t="s">
         <v>171</v>
       </c>
@@ -23866,7 +23867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2" t="s">
         <v>172</v>
       </c>
@@ -23907,7 +23908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2" t="s">
         <v>173</v>
       </c>
@@ -23948,7 +23949,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2" t="s">
         <v>174</v>
       </c>
@@ -23989,7 +23990,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2" t="s">
         <v>175</v>
       </c>
@@ -24030,7 +24031,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2" t="s">
         <v>176</v>
       </c>
@@ -24071,7 +24072,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2" t="s">
         <v>177</v>
       </c>
@@ -24112,7 +24113,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2" t="s">
         <v>178</v>
       </c>
@@ -24153,7 +24154,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2" t="s">
         <v>179</v>
       </c>
@@ -24194,7 +24195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2" t="s">
         <v>180</v>
       </c>
@@ -24235,7 +24236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2" t="s">
         <v>181</v>
       </c>
@@ -24276,7 +24277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2" t="s">
         <v>182</v>
       </c>
@@ -24317,7 +24318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="2" t="s">
         <v>183</v>
       </c>
@@ -24358,7 +24359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2" t="s">
         <v>184</v>
       </c>
@@ -24399,7 +24400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2" t="s">
         <v>185</v>
       </c>
@@ -24440,7 +24441,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2" t="s">
         <v>186</v>
       </c>
@@ -24481,7 +24482,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2" t="s">
         <v>187</v>
       </c>
@@ -24522,7 +24523,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2" t="s">
         <v>188</v>
       </c>
@@ -24563,7 +24564,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2" t="s">
         <v>189</v>
       </c>
@@ -24604,7 +24605,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="2" t="s">
         <v>190</v>
       </c>
@@ -24645,7 +24646,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="2" t="s">
         <v>191</v>
       </c>
@@ -24686,7 +24687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="2" t="s">
         <v>192</v>
       </c>
@@ -24727,7 +24728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="2" t="s">
         <v>193</v>
       </c>
@@ -24768,7 +24769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2" t="s">
         <v>194</v>
       </c>
@@ -24809,7 +24810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="2" t="s">
         <v>195</v>
       </c>
@@ -24850,7 +24851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="2" t="s">
         <v>196</v>
       </c>
@@ -24891,7 +24892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="2" t="s">
         <v>197</v>
       </c>
@@ -24932,7 +24933,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="2" t="s">
         <v>198</v>
       </c>
@@ -24973,7 +24974,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="2" t="s">
         <v>199</v>
       </c>
@@ -25014,7 +25015,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="2" t="s">
         <v>200</v>
       </c>
@@ -25055,7 +25056,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="2" t="s">
         <v>201</v>
       </c>
@@ -25096,7 +25097,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="2" t="s">
         <v>202</v>
       </c>
@@ -25137,7 +25138,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -25178,7 +25179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="2" t="s">
         <v>204</v>
       </c>
@@ -25219,7 +25220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -25260,7 +25261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="2" t="s">
         <v>206</v>
       </c>
@@ -25301,7 +25302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="2" t="s">
         <v>207</v>
       </c>
@@ -25342,7 +25343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="2" t="s">
         <v>208</v>
       </c>
@@ -25396,24 +25397,24 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83984375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.578125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="6" customWidth="1"/>
     <col min="10" max="10" width="11" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="6" customWidth="1"/>
-    <col min="12" max="13" width="11.85546875" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.68359375" style="6" customWidth="1"/>
+    <col min="12" max="13" width="11.83984375" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.15625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -25454,7 +25455,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -25495,7 +25496,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -25536,7 +25537,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -25577,7 +25578,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -25618,7 +25619,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -25659,7 +25660,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -25700,7 +25701,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -25741,7 +25742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -25782,7 +25783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -25823,7 +25824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -25864,7 +25865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -25905,7 +25906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -25946,7 +25947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -25987,7 +25988,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -26028,7 +26029,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -26069,7 +26070,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -26110,7 +26111,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -26151,7 +26152,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -26192,7 +26193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -26233,7 +26234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -26274,7 +26275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -26315,7 +26316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -26356,7 +26357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -26397,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -26438,7 +26439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -26479,7 +26480,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -26520,7 +26521,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -26561,7 +26562,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -26602,7 +26603,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -26643,7 +26644,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -26684,7 +26685,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -26725,7 +26726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -26766,7 +26767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -26807,7 +26808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -26848,7 +26849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -26889,7 +26890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -26930,7 +26931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -26971,7 +26972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -27012,7 +27013,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -27053,7 +27054,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -27094,7 +27095,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
@@ -27135,7 +27136,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
@@ -27176,7 +27177,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -27217,7 +27218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -27258,7 +27259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
@@ -27299,7 +27300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
@@ -27340,7 +27341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -27381,7 +27382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
         <v>76</v>
       </c>
@@ -27422,7 +27423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
         <v>77</v>
       </c>
@@ -27463,7 +27464,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
@@ -27504,7 +27505,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
@@ -27545,7 +27546,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
@@ -27586,7 +27587,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
@@ -27627,7 +27628,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
         <v>82</v>
       </c>
@@ -27668,7 +27669,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
         <v>83</v>
       </c>
@@ -27709,7 +27710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
         <v>84</v>
       </c>
@@ -27750,7 +27751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -27791,7 +27792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
         <v>86</v>
       </c>
@@ -27832,7 +27833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
         <v>87</v>
       </c>
@@ -27873,7 +27874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -27914,7 +27915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
         <v>89</v>
       </c>
@@ -27955,7 +27956,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
         <v>90</v>
       </c>
@@ -27996,7 +27997,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
         <v>91</v>
       </c>
@@ -28037,7 +28038,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -28078,7 +28079,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
         <v>93</v>
       </c>
@@ -28119,7 +28120,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -28160,7 +28161,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -28201,7 +28202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -28242,7 +28243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>97</v>
       </c>
@@ -28283,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
         <v>98</v>
       </c>
@@ -28324,7 +28325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
         <v>99</v>
       </c>
@@ -28365,7 +28366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -28406,7 +28407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -28447,7 +28448,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -28488,7 +28489,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
         <v>103</v>
       </c>
@@ -28529,7 +28530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -28570,7 +28571,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
         <v>105</v>
       </c>
@@ -28611,7 +28612,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
         <v>106</v>
       </c>
@@ -28652,7 +28653,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
         <v>107</v>
       </c>
@@ -28693,7 +28694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
         <v>108</v>
       </c>
@@ -28734,7 +28735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
         <v>109</v>
       </c>
@@ -28775,7 +28776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
         <v>110</v>
       </c>
@@ -28816,7 +28817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
         <v>111</v>
       </c>
@@ -28857,7 +28858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
         <v>112</v>
       </c>
@@ -28898,7 +28899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
@@ -28939,7 +28940,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
         <v>114</v>
       </c>
@@ -28980,7 +28981,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
         <v>115</v>
       </c>
@@ -29021,7 +29022,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
         <v>116</v>
       </c>
@@ -29062,7 +29063,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
         <v>117</v>
       </c>
@@ -29103,7 +29104,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
         <v>118</v>
       </c>
@@ -29144,7 +29145,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
         <v>119</v>
       </c>
@@ -29185,7 +29186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
         <v>120</v>
       </c>
@@ -29226,7 +29227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
         <v>121</v>
       </c>
@@ -29267,7 +29268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
         <v>122</v>
       </c>
@@ -29308,7 +29309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2" t="s">
         <v>123</v>
       </c>
@@ -29349,7 +29350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
         <v>124</v>
       </c>
@@ -29390,7 +29391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
         <v>125</v>
       </c>
@@ -29431,7 +29432,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2" t="s">
         <v>126</v>
       </c>
@@ -29472,7 +29473,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
         <v>127</v>
       </c>
@@ -29513,7 +29514,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2" t="s">
         <v>128</v>
       </c>
@@ -29554,7 +29555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
         <v>129</v>
       </c>
@@ -29595,7 +29596,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
         <v>130</v>
       </c>
@@ -29636,7 +29637,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
         <v>131</v>
       </c>
@@ -29677,7 +29678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
         <v>132</v>
       </c>
@@ -29718,7 +29719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
         <v>133</v>
       </c>
@@ -29759,7 +29760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
@@ -29800,7 +29801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
         <v>135</v>
       </c>
@@ -29841,7 +29842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
         <v>136</v>
       </c>
@@ -29882,7 +29883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
         <v>137</v>
       </c>
@@ -29923,7 +29924,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2" t="s">
         <v>138</v>
       </c>
@@ -29964,7 +29965,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2" t="s">
         <v>139</v>
       </c>
@@ -30005,7 +30006,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2" t="s">
         <v>140</v>
       </c>
@@ -30046,7 +30047,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
         <v>141</v>
       </c>
@@ -30087,7 +30088,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
         <v>142</v>
       </c>
@@ -30128,7 +30129,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2" t="s">
         <v>143</v>
       </c>
@@ -30169,7 +30170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2" t="s">
         <v>144</v>
       </c>
@@ -30210,7 +30211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
         <v>145</v>
       </c>
@@ -30251,7 +30252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2" t="s">
         <v>146</v>
       </c>
@@ -30292,7 +30293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2" t="s">
         <v>147</v>
       </c>
@@ -30333,7 +30334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -30374,7 +30375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -30415,7 +30416,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2" t="s">
         <v>150</v>
       </c>
@@ -30456,7 +30457,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2" t="s">
         <v>151</v>
       </c>
@@ -30497,7 +30498,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2" t="s">
         <v>152</v>
       </c>
@@ -30538,7 +30539,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2" t="s">
         <v>153</v>
       </c>
@@ -30579,7 +30580,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2" t="s">
         <v>154</v>
       </c>
@@ -30620,7 +30621,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2" t="s">
         <v>155</v>
       </c>
@@ -30661,7 +30662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2" t="s">
         <v>156</v>
       </c>
@@ -30702,7 +30703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2" t="s">
         <v>157</v>
       </c>
@@ -30743,7 +30744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2" t="s">
         <v>158</v>
       </c>
@@ -30784,7 +30785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2" t="s">
         <v>159</v>
       </c>
@@ -30825,7 +30826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2" t="s">
         <v>160</v>
       </c>
@@ -30866,7 +30867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2" t="s">
         <v>161</v>
       </c>
@@ -30907,7 +30908,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2" t="s">
         <v>162</v>
       </c>
@@ -30948,7 +30949,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2" t="s">
         <v>163</v>
       </c>
@@ -30989,7 +30990,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2" t="s">
         <v>164</v>
       </c>
@@ -31030,7 +31031,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2" t="s">
         <v>165</v>
       </c>
@@ -31071,7 +31072,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2" t="s">
         <v>166</v>
       </c>
@@ -31112,7 +31113,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2" t="s">
         <v>167</v>
       </c>
@@ -31153,7 +31154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2" t="s">
         <v>168</v>
       </c>
@@ -31194,7 +31195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2" t="s">
         <v>169</v>
       </c>
@@ -31235,7 +31236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2" t="s">
         <v>170</v>
       </c>
@@ -31276,7 +31277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2" t="s">
         <v>171</v>
       </c>
@@ -31317,7 +31318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2" t="s">
         <v>172</v>
       </c>
@@ -31358,7 +31359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2" t="s">
         <v>173</v>
       </c>
@@ -31399,7 +31400,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2" t="s">
         <v>174</v>
       </c>
@@ -31440,7 +31441,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2" t="s">
         <v>175</v>
       </c>
@@ -31481,7 +31482,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2" t="s">
         <v>176</v>
       </c>
@@ -31522,7 +31523,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2" t="s">
         <v>177</v>
       </c>
@@ -31563,7 +31564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2" t="s">
         <v>178</v>
       </c>
@@ -31604,7 +31605,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2" t="s">
         <v>179</v>
       </c>
@@ -31645,7 +31646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2" t="s">
         <v>180</v>
       </c>
@@ -31686,7 +31687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2" t="s">
         <v>181</v>
       </c>
@@ -31727,7 +31728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2" t="s">
         <v>182</v>
       </c>
@@ -31768,7 +31769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="2" t="s">
         <v>183</v>
       </c>
@@ -31809,7 +31810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2" t="s">
         <v>184</v>
       </c>
@@ -31850,7 +31851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2" t="s">
         <v>185</v>
       </c>
@@ -31891,7 +31892,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2" t="s">
         <v>186</v>
       </c>
@@ -31932,7 +31933,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2" t="s">
         <v>187</v>
       </c>
@@ -31973,7 +31974,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2" t="s">
         <v>188</v>
       </c>
@@ -32014,7 +32015,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2" t="s">
         <v>189</v>
       </c>
@@ -32055,7 +32056,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="2" t="s">
         <v>190</v>
       </c>
@@ -32096,7 +32097,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="2" t="s">
         <v>191</v>
       </c>
@@ -32137,7 +32138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="2" t="s">
         <v>192</v>
       </c>
@@ -32178,7 +32179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="2" t="s">
         <v>193</v>
       </c>
@@ -32219,7 +32220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2" t="s">
         <v>194</v>
       </c>
@@ -32260,7 +32261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="2" t="s">
         <v>195</v>
       </c>
@@ -32301,7 +32302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="2" t="s">
         <v>196</v>
       </c>
@@ -32342,7 +32343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="2" t="s">
         <v>197</v>
       </c>
@@ -32383,7 +32384,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="2" t="s">
         <v>198</v>
       </c>
@@ -32424,7 +32425,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="2" t="s">
         <v>199</v>
       </c>
@@ -32465,7 +32466,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="2" t="s">
         <v>200</v>
       </c>
@@ -32506,7 +32507,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="2" t="s">
         <v>201</v>
       </c>
@@ -32547,7 +32548,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="2" t="s">
         <v>202</v>
       </c>
@@ -32588,7 +32589,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -32629,7 +32630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="2" t="s">
         <v>204</v>
       </c>
@@ -32670,7 +32671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -32711,7 +32712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="2" t="s">
         <v>206</v>
       </c>
@@ -32752,7 +32753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="2" t="s">
         <v>207</v>
       </c>
@@ -32793,7 +32794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="2" t="s">
         <v>208</v>
       </c>
